--- a/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_per_day_fixed_period_4_square_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_per_day_fixed_period_4_square_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.24000000000019</v>
+        <v>23.15000000000018</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0003043250214327387</v>
+        <v>0.00386416876406892</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0003043250214327387</v>
+        <v>0.00386416876406892</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>50.7499777075428</v>
+        <v>38.9570380676392</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[21.668282479819396, 79.8316729352662]</t>
+          <t>[13.975690610088392, 63.938385525190014]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.00101627142183558</v>
+        <v>0.002974901926535933</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00101627142183558</v>
+        <v>0.002974901926535933</v>
       </c>
       <c r="P2" t="n">
-        <v>1.327079178993886</v>
+        <v>1.603816069400195</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.672973801669885, 1.9811845563178867]</t>
+          <t>[0.748447499053424, 2.459184639746966]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.0001781400952638457</v>
+        <v>0.0004640924917651557</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0001781400952638457</v>
+        <v>0.0004640924917651557</v>
       </c>
       <c r="T2" t="n">
-        <v>70.0714505666254</v>
+        <v>54.86119218033259</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[53.93881725221058, 86.20408388104022]</t>
+          <t>[39.49325926951502, 70.22912509115017]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.883493444016949e-11</v>
+        <v>5.329617636107287e-09</v>
       </c>
       <c r="W2" t="n">
-        <v>2.883493444016949e-11</v>
+        <v>5.329617636107287e-09</v>
       </c>
       <c r="X2" t="n">
-        <v>18.33145145145161</v>
+        <v>17.24084084084097</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.91207207207221</v>
+        <v>14.0892892892894</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.75083083083101</v>
+        <v>20.39239239239255</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.24000000000019</v>
+        <v>23.15000000000018</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008015162801559006</v>
+        <v>0.0004398141388173293</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0008015162801559006</v>
+        <v>0.0004398141388173293</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>44.14624691124082</v>
+        <v>41.93397949221674</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[15.33475857796148, 72.95773524452015]</t>
+          <t>[17.676177699294755, 66.19178128513873]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.003464494248876626</v>
+        <v>0.001119990625147338</v>
       </c>
       <c r="O3" t="n">
-        <v>0.003464494248876626</v>
+        <v>0.001119990625147338</v>
       </c>
       <c r="P3" t="n">
-        <v>2.018921405009656</v>
+        <v>1.830237161550811</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.352237078121731, 2.6856057318975806]</t>
+          <t>[1.1635528346628883, 2.4969214884387343]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.223267199230605e-07</v>
+        <v>1.551535694144235e-06</v>
       </c>
       <c r="S3" t="n">
-        <v>2.223267199230605e-07</v>
+        <v>1.551535694144235e-06</v>
       </c>
       <c r="T3" t="n">
-        <v>59.58464157346123</v>
+        <v>52.08092657673123</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[44.371342247681916, 74.79794089924053]</t>
+          <t>[38.37135575379554, 65.79049739966692]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>5.011671078136715e-10</v>
+        <v>1.114260683721113e-09</v>
       </c>
       <c r="W3" t="n">
-        <v>5.011671078136715e-10</v>
+        <v>1.114260683721113e-09</v>
       </c>
       <c r="X3" t="n">
-        <v>15.77249249249263</v>
+        <v>16.40660660660673</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.3065865865867</v>
+        <v>13.95025025025036</v>
       </c>
       <c r="Z3" t="n">
-        <v>18.23839839839856</v>
+        <v>18.8629629629631</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.24000000000019</v>
+        <v>23.15000000000018</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.674381022720439e-07</v>
+        <v>2.968814771797668e-07</v>
       </c>
       <c r="I4" t="n">
-        <v>1.674381022720439e-07</v>
+        <v>2.968814771797668e-07</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>66.58010686730522</v>
+        <v>59.8959893193038</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[41.7247051687107, 91.43550856589974]</t>
+          <t>[37.02194240077068, 82.77003623783692]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2.442708124661408e-06</v>
+        <v>3.675999582730682e-06</v>
       </c>
       <c r="O4" t="n">
-        <v>2.442708124661408e-06</v>
+        <v>3.675999582730682e-06</v>
       </c>
       <c r="P4" t="n">
-        <v>1.993763505881811</v>
+        <v>1.842816111114733</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.566079220708426, 2.4214477910551953]</t>
+          <t>[1.427710775505271, 2.257921446724196]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.604450071748033e-12</v>
+        <v>1.533373428230789e-11</v>
       </c>
       <c r="S4" t="n">
-        <v>3.604450071748033e-12</v>
+        <v>1.533373428230789e-11</v>
       </c>
       <c r="T4" t="n">
-        <v>70.9721891799949</v>
+        <v>69.24793370846726</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[56.96788133861008, 84.97649702137971]</t>
+          <t>[56.38829765350384, 82.10756976343067]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.724487302430134e-13</v>
+        <v>3.841371665203042e-14</v>
       </c>
       <c r="W4" t="n">
-        <v>2.724487302430134e-13</v>
+        <v>3.841371665203042e-14</v>
       </c>
       <c r="X4" t="n">
-        <v>15.86554554554568</v>
+        <v>16.36026026026039</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.28364364364377</v>
+        <v>14.83083083083095</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.44744744744759</v>
+        <v>17.88968968968983</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.24000000000019</v>
+        <v>23.15000000000018</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7925500295799e-08</v>
+        <v>0.0005252303066670683</v>
       </c>
       <c r="I5" t="n">
-        <v>3.7925500295799e-08</v>
+        <v>0.0005252303066670683</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>55.05905490564312</v>
+        <v>37.14857352464572</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[33.856888588020595, 76.26122122326565]</t>
+          <t>[13.569596573854554, 60.727550475436885]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>4.256636282562454e-06</v>
+        <v>0.00271740545441479</v>
       </c>
       <c r="O5" t="n">
-        <v>4.256636282562454e-06</v>
+        <v>0.00271740545441479</v>
       </c>
       <c r="P5" t="n">
-        <v>2.169868799776734</v>
+        <v>2.182447749340658</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.7673424137311953, 2.5723951858222724]</t>
+          <t>[1.5660792207084269, 2.7988162779728887]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3.708144902248023e-14</v>
+        <v>6.504698113474205e-09</v>
       </c>
       <c r="S5" t="n">
-        <v>3.708144902248023e-14</v>
+        <v>6.504698113474205e-09</v>
       </c>
       <c r="T5" t="n">
-        <v>59.5618263084769</v>
+        <v>58.44902130655093</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[48.65386050215885, 70.46979211479496]</t>
+          <t>[46.011103633128215, 70.88693897997365]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.420286193682841e-14</v>
+        <v>2.830180534374449e-12</v>
       </c>
       <c r="W5" t="n">
-        <v>2.420286193682841e-14</v>
+        <v>2.830180534374449e-12</v>
       </c>
       <c r="X5" t="n">
-        <v>15.2141741741743</v>
+        <v>15.10890890890902</v>
       </c>
       <c r="Y5" t="n">
-        <v>13.72532532532544</v>
+        <v>12.83793793793804</v>
       </c>
       <c r="Z5" t="n">
-        <v>16.70302302302316</v>
+        <v>17.37987987988001</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.24000000000019</v>
+        <v>23.15000000000018</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01044955202531628</v>
+        <v>4.363399727269623e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01044955202531628</v>
+        <v>4.363399727269623e-05</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>36.89369100431107</v>
+        <v>51.13198758032942</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[4.458972655322626, 69.3284093532995]</t>
+          <t>[23.74959091044495, 78.51438425021388]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.02669996946761888</v>
+        <v>0.0004863945430486627</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02669996946761888</v>
+        <v>0.0004863945430486627</v>
       </c>
       <c r="P6" t="n">
-        <v>2.320816194543811</v>
+        <v>2.597553084950119</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.5786581702723481, 3.062974218815274]</t>
+          <t>[2.0315003545735806, 3.163605815326658]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>1.124841946253952e-07</v>
+        <v>5.778488798569015e-12</v>
       </c>
       <c r="S6" t="n">
-        <v>1.124841946253952e-07</v>
+        <v>5.778488798569015e-12</v>
       </c>
       <c r="T6" t="n">
-        <v>56.93185110112039</v>
+        <v>62.06438141126353</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[40.42288595246311, 73.44081624977767]</t>
+          <t>[47.46364482231779, 76.66511800020926]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.226541135324055e-08</v>
+        <v>5.327871477334156e-11</v>
       </c>
       <c r="W6" t="n">
-        <v>1.226541135324055e-08</v>
+        <v>5.327871477334156e-11</v>
       </c>
       <c r="X6" t="n">
-        <v>14.65585585585598</v>
+        <v>13.57947947947958</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.91079079079089</v>
+        <v>11.49389389389398</v>
       </c>
       <c r="Z6" t="n">
-        <v>17.40092092092107</v>
+        <v>15.66506506506518</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.24000000000019</v>
+        <v>23.15000000000018</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002244636997408067</v>
+        <v>4.917596185816109e-08</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002244636997408067</v>
+        <v>4.917596185816109e-08</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>41.7042446594316</v>
+        <v>61.47231037764974</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[11.147433429215365, 72.26105588964784]</t>
+          <t>[39.15314578139068, 83.7914749739088]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.008577148645295241</v>
+        <v>1.459479263887786e-06</v>
       </c>
       <c r="O7" t="n">
-        <v>0.008577148645295241</v>
+        <v>1.459479263887786e-06</v>
       </c>
       <c r="P7" t="n">
-        <v>2.270500396288118</v>
+        <v>2.823974177100735</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[1.6038160694001933, 2.937184723176043]</t>
+          <t>[2.4340267406191187, 3.2139216135823507]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>1.647697955853289e-08</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1.647697955853289e-08</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>60.81603667797205</v>
+        <v>64.39050657599476</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[44.975720626921216, 76.65635272902288]</t>
+          <t>[51.833841367552964, 76.94717178443656]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>8.464038359079495e-10</v>
+        <v>1.871836019518014e-13</v>
       </c>
       <c r="W7" t="n">
-        <v>8.464038359079495e-10</v>
+        <v>1.871836019518014e-13</v>
       </c>
       <c r="X7" t="n">
-        <v>14.84196196196209</v>
+        <v>12.74524524524534</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.37605605605616</v>
+        <v>11.3085085085086</v>
       </c>
       <c r="Z7" t="n">
-        <v>17.30786786786802</v>
+        <v>14.18198198198209</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.24000000000019</v>
+        <v>23.15000000000018</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.003671978005102217</v>
+        <v>2.849298943596867e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>0.003671978005102217</v>
+        <v>2.849298943596867e-05</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>40.50623032323014</v>
+        <v>39.45059510095895</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[12.48496260407326, 68.52749804238702]</t>
+          <t>[19.669516421908227, 59.23167378000967]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.005578139636575052</v>
+        <v>0.0002213472879342149</v>
       </c>
       <c r="O8" t="n">
-        <v>0.005578139636575052</v>
+        <v>0.0002213472879342149</v>
       </c>
       <c r="P8" t="n">
-        <v>2.962342622303888</v>
+        <v>2.836553126664658</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[2.0440793041375014, 3.8806059404702755]</t>
+          <t>[2.257921446724196, 3.4151848066051205]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>5.685014548006961e-08</v>
+        <v>7.736034035588091e-13</v>
       </c>
       <c r="S8" t="n">
-        <v>5.685014548006961e-08</v>
+        <v>7.736034035588091e-13</v>
       </c>
       <c r="T8" t="n">
-        <v>50.9129857723668</v>
+        <v>53.18288476391037</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[34.50935920178485, 67.31661234294874]</t>
+          <t>[42.139205719687865, 64.22656380813287]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.321454929925636e-07</v>
+        <v>1.341593502957039e-12</v>
       </c>
       <c r="W8" t="n">
-        <v>1.321454929925636e-07</v>
+        <v>1.341593502957039e-12</v>
       </c>
       <c r="X8" t="n">
-        <v>12.28300300300311</v>
+        <v>12.698898898899</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.886566566566637</v>
+        <v>10.56696696696705</v>
       </c>
       <c r="Z8" t="n">
-        <v>15.67943943943957</v>
+        <v>14.83083083083095</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.6300000000001</v>
+        <v>22.21000000000003</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.464900438397088e-06</v>
+        <v>0.0002894806640361125</v>
       </c>
       <c r="I9" t="n">
-        <v>1.464900438397088e-06</v>
+        <v>0.0002894806640361125</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>61.15472046961679</v>
+        <v>56.38229665040861</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[37.01504537495228, 85.2943955642813]</t>
+          <t>[20.73616735942737, 92.02842594138984]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>6.534931471069427e-06</v>
+        <v>0.002623286734116048</v>
       </c>
       <c r="O9" t="n">
-        <v>6.534931471069427e-06</v>
+        <v>0.002623286734116048</v>
       </c>
       <c r="P9" t="n">
-        <v>3.037816319687427</v>
+        <v>2.421447791055196</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[2.5849741353861964, 3.4906585039886586]</t>
+          <t>[1.8553950606786556, 2.987500521431736]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>4.453504232060368e-11</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>4.453504232060368e-11</v>
       </c>
       <c r="T9" t="n">
-        <v>76.49268308889634</v>
+        <v>70.48889192064389</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[61.73541318669713, 91.24995299109555]</t>
+          <t>[52.060068957602454, 88.91771488368533]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.325606291402437e-13</v>
+        <v>9.333547268397524e-10</v>
       </c>
       <c r="W9" t="n">
-        <v>1.325606291402437e-13</v>
+        <v>9.333547268397524e-10</v>
       </c>
       <c r="X9" t="n">
-        <v>11.68876876876882</v>
+        <v>13.65059059059061</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.05777777777782</v>
+        <v>11.6496896896897</v>
       </c>
       <c r="Z9" t="n">
-        <v>13.31975975975982</v>
+        <v>15.65149149149152</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.6300000000001</v>
+        <v>22.21000000000003</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.97616831183467e-05</v>
+        <v>0.0001441171492491122</v>
       </c>
       <c r="I10" t="n">
-        <v>1.97616831183467e-05</v>
+        <v>0.0001441171492491122</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>50.37035449177706</v>
+        <v>45.8012043604716</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[25.267180080414192, 75.47352890313992]</t>
+          <t>[20.920695825891272, 70.68171289505193]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.000205046331561709</v>
+        <v>0.0005716222122655878</v>
       </c>
       <c r="O10" t="n">
-        <v>0.000205046331561709</v>
+        <v>0.0005716222122655878</v>
       </c>
       <c r="P10" t="n">
-        <v>2.836553126664658</v>
+        <v>-2.930895248394081</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[2.2956582954159654, 3.377447957913351]</t>
+          <t>[-3.585000625718082, -2.2767898710700805]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>9.126033262418787e-14</v>
+        <v>1.16924248061423e-11</v>
       </c>
       <c r="S10" t="n">
-        <v>9.126033262418787e-14</v>
+        <v>1.16924248061423e-11</v>
       </c>
       <c r="T10" t="n">
-        <v>56.20605370720007</v>
+        <v>68.83258448197918</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[42.26426312511069, 70.14784428928945]</t>
+          <t>[54.475156710896954, 83.19001225306141]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.308615520973945e-10</v>
+        <v>1.538769112130467e-12</v>
       </c>
       <c r="W10" t="n">
-        <v>2.308615520973945e-10</v>
+        <v>1.538769112130467e-12</v>
       </c>
       <c r="X10" t="n">
-        <v>12.41365365365371</v>
+        <v>10.36022022022024</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.46552552552557</v>
+        <v>8.048068068068082</v>
       </c>
       <c r="Z10" t="n">
-        <v>14.36178178178184</v>
+        <v>12.67237237237239</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.6300000000001</v>
+        <v>22.21000000000003</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>4.236690439363144e-06</v>
+        <v>4.691070541240627e-06</v>
       </c>
       <c r="I11" t="n">
-        <v>4.236690439363144e-06</v>
+        <v>4.691070541240627e-06</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>57.61493205852945</v>
+        <v>54.49315747898922</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[30.232224616044732, 84.99763950101418]</t>
+          <t>[27.944528246091757, 81.04178671188669]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.0001104190465790467</v>
+        <v>0.000153289639055032</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0001104190465790467</v>
+        <v>0.000153289639055032</v>
       </c>
       <c r="P11" t="n">
-        <v>-2.540947811912465</v>
+        <v>-2.377421467581465</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-3.0189478953415416, -2.062947728483388]</t>
+          <t>[-2.8302636518826954, -1.924579283280234]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>5.861977570020827e-14</v>
+        <v>8.79296635503124e-14</v>
       </c>
       <c r="S11" t="n">
-        <v>5.861977570020827e-14</v>
+        <v>8.79296635503124e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>71.02576298657651</v>
+        <v>57.22759354448456</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[56.67114231671252, 85.3803836564405]</t>
+          <t>[43.75930639729138, 70.69588069167773]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>5.790923296444817e-13</v>
+        <v>5.38866729016263e-11</v>
       </c>
       <c r="W11" t="n">
-        <v>5.790923296444817e-13</v>
+        <v>5.38866729016263e-11</v>
       </c>
       <c r="X11" t="n">
-        <v>9.151671671671711</v>
+        <v>8.403783783783794</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.430070070070105</v>
+        <v>6.803063063063074</v>
       </c>
       <c r="Z11" t="n">
-        <v>10.87327327327332</v>
+        <v>10.00450450450452</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.6300000000001</v>
+        <v>22.21000000000003</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.000567699132898114</v>
+        <v>6.660569313421405e-06</v>
       </c>
       <c r="I12" t="n">
-        <v>0.000567699132898114</v>
+        <v>6.660569313421405e-06</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>57.22055839040198</v>
+        <v>46.39793145484609</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[20.7702845399277, 93.67083224087625]</t>
+          <t>[23.58616522282291, 69.20969768686928]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.002805871983436958</v>
+        <v>0.0001724885281040311</v>
       </c>
       <c r="O12" t="n">
-        <v>0.002805871983436958</v>
+        <v>0.0001724885281040311</v>
       </c>
       <c r="P12" t="n">
-        <v>-2.276789871070081</v>
+        <v>-2.427737265837158</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-2.880579450138389, -1.673000292001773]</t>
+          <t>[-2.905737349266236, -1.9497371824080791]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>1.348625211505805e-09</v>
+        <v>2.542410726391608e-13</v>
       </c>
       <c r="S12" t="n">
-        <v>1.348625211505805e-09</v>
+        <v>2.542410726391608e-13</v>
       </c>
       <c r="T12" t="n">
-        <v>82.76328654137913</v>
+        <v>56.75724088445714</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[63.5973352200711, 101.92923786268716]</t>
+          <t>[45.036391201321905, 68.47809056759237]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>3.406408488615398e-11</v>
+        <v>1.131095217488109e-12</v>
       </c>
       <c r="W12" t="n">
-        <v>3.406408488615398e-11</v>
+        <v>1.131095217488109e-12</v>
       </c>
       <c r="X12" t="n">
-        <v>8.200260260260297</v>
+        <v>8.581641641641655</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.025605605605636</v>
+        <v>6.891991991992</v>
       </c>
       <c r="Z12" t="n">
-        <v>10.37491491491496</v>
+        <v>10.27129129129131</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_per_day_fixed_period_4_square_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_01/cosinor_per_day_fixed_period_4_square_01_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.15000000000018</v>
+        <v>23.03000000000016</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00386416876406892</v>
+        <v>0.01329613094555537</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00386416876406892</v>
+        <v>0.01329613094555537</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>38.9570380676392</v>
+        <v>30.75455523963492</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[13.975690610088392, 63.938385525190014]</t>
+          <t>[8.102104902990057, 53.40700557627978]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.002974901926535933</v>
+        <v>0.008904001924032956</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002974901926535933</v>
+        <v>0.008904001924032956</v>
       </c>
       <c r="P2" t="n">
-        <v>1.603816069400195</v>
+        <v>1.490605523324887</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.748447499053424, 2.459184639746966]</t>
+          <t>[0.47171060864711656, 2.5095004380026573]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.0004640924917651557</v>
+        <v>0.005075208778289042</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0004640924917651557</v>
+        <v>0.005075208778289042</v>
       </c>
       <c r="T2" t="n">
-        <v>54.86119218033259</v>
+        <v>56.82115055470992</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[39.49325926951502, 70.22912509115017]</t>
+          <t>[42.90678989347528, 70.73551121594457]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>5.329617636107287e-09</v>
+        <v>1.626214718442043e-10</v>
       </c>
       <c r="W2" t="n">
-        <v>5.329617636107287e-09</v>
+        <v>1.626214718442043e-10</v>
       </c>
       <c r="X2" t="n">
-        <v>17.24084084084097</v>
+        <v>17.56642642642655</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.0892892892894</v>
+        <v>13.83183183183193</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.39239239239255</v>
+        <v>21.30102102102117</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.15000000000018</v>
+        <v>23.03000000000016</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0004398141388173293</v>
+        <v>1.441277190927792e-07</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0004398141388173293</v>
+        <v>1.441277190927792e-07</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>41.93397949221674</v>
+        <v>59.23486122382236</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[17.676177699294755, 66.19178128513873]</t>
+          <t>[37.345666362021774, 81.12405608562294]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.001119990625147338</v>
+        <v>2.026613167060987e-06</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001119990625147338</v>
+        <v>2.026613167060987e-06</v>
       </c>
       <c r="P3" t="n">
-        <v>1.830237161550811</v>
+        <v>1.842816111114733</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.1635528346628883, 2.4969214884387343]</t>
+          <t>[1.427710775505271, 2.257921446724196]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.551535694144235e-06</v>
+        <v>1.533373428230789e-11</v>
       </c>
       <c r="S3" t="n">
-        <v>1.551535694144235e-06</v>
+        <v>1.533373428230789e-11</v>
       </c>
       <c r="T3" t="n">
-        <v>52.08092657673123</v>
+        <v>67.45792849138726</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[38.37135575379554, 65.79049739966692]</t>
+          <t>[55.1623243224357, 79.75353266033883]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.114260683721113e-09</v>
+        <v>2.065014825802791e-14</v>
       </c>
       <c r="W3" t="n">
-        <v>1.114260683721113e-09</v>
+        <v>2.065014825802791e-14</v>
       </c>
       <c r="X3" t="n">
-        <v>16.40660660660673</v>
+        <v>16.27545545545557</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.95025025025036</v>
+        <v>14.75395395395406</v>
       </c>
       <c r="Z3" t="n">
-        <v>18.8629629629631</v>
+        <v>17.79695695695709</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.15000000000018</v>
+        <v>23.03000000000016</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.968814771797668e-07</v>
+        <v>0.0002433263626331339</v>
       </c>
       <c r="I4" t="n">
-        <v>2.968814771797668e-07</v>
+        <v>0.0002433263626331339</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>59.8959893193038</v>
+        <v>49.37104096102889</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[37.02194240077068, 82.77003623783692]</t>
+          <t>[19.583950604889097, 79.15813131716868]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.675999582730682e-06</v>
+        <v>0.001699397600024577</v>
       </c>
       <c r="O4" t="n">
-        <v>3.675999582730682e-06</v>
+        <v>0.001699397600024577</v>
       </c>
       <c r="P4" t="n">
-        <v>1.842816111114733</v>
+        <v>2.044079304137503</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.427710775505271, 2.257921446724196]</t>
+          <t>[1.46544762419704, 2.6227109840779654]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.533373428230789e-11</v>
+        <v>6.881810454828496e-09</v>
       </c>
       <c r="S4" t="n">
-        <v>1.533373428230789e-11</v>
+        <v>6.881810454828496e-09</v>
       </c>
       <c r="T4" t="n">
-        <v>69.24793370846726</v>
+        <v>72.08012862210225</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[56.38829765350384, 82.10756976343067]</t>
+          <t>[56.55444653767235, 87.60581070653215]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>3.841371665203042e-14</v>
+        <v>4.078959392472825e-12</v>
       </c>
       <c r="W4" t="n">
-        <v>3.841371665203042e-14</v>
+        <v>4.078959392472825e-12</v>
       </c>
       <c r="X4" t="n">
-        <v>16.36026026026039</v>
+        <v>15.53775775775787</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.83083083083095</v>
+        <v>13.41687687687697</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.88968968968983</v>
+        <v>17.65863863863876</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.15000000000018</v>
+        <v>23.03000000000016</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0005252303066670683</v>
+        <v>5.727043800962672e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0005252303066670683</v>
+        <v>5.727043800962672e-05</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>37.14857352464572</v>
+        <v>55.8160823541791</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[13.569596573854554, 60.727550475436885]</t>
+          <t>[25.45152809617646, 86.18063661218174]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.00271740545441479</v>
+        <v>0.0005808944434735341</v>
       </c>
       <c r="O5" t="n">
-        <v>0.00271740545441479</v>
+        <v>0.0005808944434735341</v>
       </c>
       <c r="P5" t="n">
-        <v>2.182447749340658</v>
+        <v>2.257921446724196</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.5660792207084269, 2.7988162779728887]</t>
+          <t>[1.7170266154755032, 2.7988162779728887]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>6.504698113474205e-09</v>
+        <v>8.858225264418707e-11</v>
       </c>
       <c r="S5" t="n">
-        <v>6.504698113474205e-09</v>
+        <v>8.858225264418707e-11</v>
       </c>
       <c r="T5" t="n">
-        <v>58.44902130655093</v>
+        <v>66.49548949361045</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[46.011103633128215, 70.88693897997365]</t>
+          <t>[50.43886926553639, 82.5521097216845]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.830180534374449e-12</v>
+        <v>1.105082692021142e-10</v>
       </c>
       <c r="W5" t="n">
-        <v>2.830180534374449e-12</v>
+        <v>1.105082692021142e-10</v>
       </c>
       <c r="X5" t="n">
-        <v>15.10890890890902</v>
+        <v>14.75395395395406</v>
       </c>
       <c r="Y5" t="n">
-        <v>12.83793793793804</v>
+        <v>12.77139139139148</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.37987987988001</v>
+        <v>16.73651651651663</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.15000000000018</v>
+        <v>23.03000000000016</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>4.363399727269623e-05</v>
+        <v>5.191929371772819e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>4.363399727269623e-05</v>
+        <v>5.191929371772819e-05</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>51.13198758032942</v>
+        <v>50.42884429173984</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[23.74959091044495, 78.51438425021388]</t>
+          <t>[22.987265885576264, 77.87042269790342]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0004863945430486627</v>
+        <v>0.0005827266942401987</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0004863945430486627</v>
+        <v>0.0005827266942401987</v>
       </c>
       <c r="P6" t="n">
-        <v>2.597553084950119</v>
+        <v>2.698184681461504</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[2.0315003545735806, 3.163605815326658]</t>
+          <t>[2.144710900648888, 3.2516584622741203]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>5.778488798569015e-12</v>
+        <v>9.194867089945546e-13</v>
       </c>
       <c r="S6" t="n">
-        <v>5.778488798569015e-12</v>
+        <v>9.194867089945546e-13</v>
       </c>
       <c r="T6" t="n">
-        <v>62.06438141126353</v>
+        <v>57.57225725929308</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[47.46364482231779, 76.66511800020926]</t>
+          <t>[42.942190020885704, 72.20232449770046]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>5.327871477334156e-11</v>
+        <v>4.41958469821202e-10</v>
       </c>
       <c r="W6" t="n">
-        <v>5.327871477334156e-11</v>
+        <v>4.41958469821202e-10</v>
       </c>
       <c r="X6" t="n">
-        <v>13.57947947947958</v>
+        <v>13.14024024024033</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.49389389389398</v>
+        <v>11.11157157157165</v>
       </c>
       <c r="Z6" t="n">
-        <v>15.66506506506518</v>
+        <v>15.16890890890902</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.15000000000018</v>
+        <v>23.03000000000016</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>4.917596185816109e-08</v>
+        <v>6.752263586617957e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>4.917596185816109e-08</v>
+        <v>6.752263586617957e-05</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>61.47231037764974</v>
+        <v>52.32544335693393</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[39.15314578139068, 83.7914749739088]</t>
+          <t>[24.226856827061297, 80.42402988680657]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.459479263887786e-06</v>
+        <v>0.0005018588333778329</v>
       </c>
       <c r="O7" t="n">
-        <v>1.459479263887786e-06</v>
+        <v>0.0005018588333778329</v>
       </c>
       <c r="P7" t="n">
-        <v>2.823974177100735</v>
+        <v>2.761079429281119</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[2.4340267406191187, 3.2139216135823507]</t>
+          <t>[2.157289850212811, 3.3648690083494275]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>6.410427744185654e-12</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>6.410427744185654e-12</v>
       </c>
       <c r="T7" t="n">
-        <v>64.39050657599476</v>
+        <v>76.733164636787</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[51.833841367552964, 76.94717178443656]</t>
+          <t>[61.262731974089604, 92.20359729948439]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.871836019518014e-13</v>
+        <v>5.366818101038007e-13</v>
       </c>
       <c r="W7" t="n">
-        <v>1.871836019518014e-13</v>
+        <v>5.366818101038007e-13</v>
       </c>
       <c r="X7" t="n">
-        <v>12.74524524524534</v>
+        <v>12.9097097097098</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.3085085085086</v>
+        <v>10.69661661661669</v>
       </c>
       <c r="Z7" t="n">
-        <v>14.18198198198209</v>
+        <v>15.12280280280291</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.15000000000018</v>
+        <v>23.03000000000016</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.849298943596867e-05</v>
+        <v>0.004149000407285386</v>
       </c>
       <c r="I8" t="n">
-        <v>2.849298943596867e-05</v>
+        <v>0.004149000407285386</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>39.45059510095895</v>
+        <v>41.31862365943314</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[19.669516421908227, 59.23167378000967]</t>
+          <t>[12.174984760368105, 70.46226255849818]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.0002213472879342149</v>
+        <v>0.006478312138137543</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0002213472879342149</v>
+        <v>0.006478312138137543</v>
       </c>
       <c r="P8" t="n">
-        <v>2.836553126664658</v>
+        <v>-3.056684744033312</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[2.257921446724196, 3.4151848066051205]</t>
+          <t>[-3.9497901630718517, -2.1635793249947732]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>7.736034035588091e-13</v>
+        <v>1.466955357187771e-08</v>
       </c>
       <c r="S8" t="n">
-        <v>7.736034035588091e-13</v>
+        <v>1.466955357187771e-08</v>
       </c>
       <c r="T8" t="n">
-        <v>53.18288476391037</v>
+        <v>66.87595552861879</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[42.139205719687865, 64.22656380813287]</t>
+          <t>[49.86826541111665, 83.88364564612093]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.341593502957039e-12</v>
+        <v>4.51320980587866e-10</v>
       </c>
       <c r="W8" t="n">
-        <v>1.341593502957039e-12</v>
+        <v>4.51320980587866e-10</v>
       </c>
       <c r="X8" t="n">
-        <v>12.698898898899</v>
+        <v>11.20378378378386</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.56696696696705</v>
+        <v>7.930250250250308</v>
       </c>
       <c r="Z8" t="n">
-        <v>14.83083083083095</v>
+        <v>14.47731731731742</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.21000000000003</v>
+        <v>22.24000000000004</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0002894806640361125</v>
+        <v>0.002914296550874385</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0002894806640361125</v>
+        <v>0.002914296550874385</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>56.38229665040861</v>
+        <v>43.82528969620662</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[20.73616735942737, 92.02842594138984]</t>
+          <t>[12.070898610889586, 75.57968078152366]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.002623286734116048</v>
+        <v>0.007912776001593791</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002623286734116048</v>
+        <v>0.007912776001593791</v>
       </c>
       <c r="P9" t="n">
-        <v>2.421447791055196</v>
+        <v>2.811395227536812</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[1.8553950606786556, 2.987500521431736]</t>
+          <t>[1.968605606753965, 3.6541848483196593]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>4.453504232060368e-11</v>
+        <v>2.666024911945897e-08</v>
       </c>
       <c r="S9" t="n">
-        <v>4.453504232060368e-11</v>
+        <v>2.666024911945897e-08</v>
       </c>
       <c r="T9" t="n">
-        <v>70.48889192064389</v>
+        <v>67.18581962057624</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[52.060068957602454, 88.91771488368533]</t>
+          <t>[49.55894419547258, 84.8126950456799]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>9.333547268397524e-10</v>
+        <v>1.022168349962271e-09</v>
       </c>
       <c r="W9" t="n">
-        <v>9.333547268397524e-10</v>
+        <v>1.022168349962271e-09</v>
       </c>
       <c r="X9" t="n">
-        <v>13.65059059059061</v>
+        <v>12.28876876876879</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.6496896896897</v>
+        <v>9.305625625625641</v>
       </c>
       <c r="Z9" t="n">
-        <v>15.65149149149152</v>
+        <v>15.27191191191194</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.21000000000003</v>
+        <v>22.24000000000004</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0001441171492491122</v>
+        <v>0.008214880745225916</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001441171492491122</v>
+        <v>0.008214880745225916</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>45.8012043604716</v>
+        <v>32.73186859253654</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[20.920695825891272, 70.68171289505193]</t>
+          <t>[5.048334291726917, 60.41540289334617]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.0005716222122655878</v>
+        <v>0.0215382138440261</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0005716222122655878</v>
+        <v>0.0215382138440261</v>
       </c>
       <c r="P10" t="n">
-        <v>-2.930895248394081</v>
+        <v>-2.64157940842385</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-3.585000625718082, -2.2767898710700805]</t>
+          <t>[-3.509526928334543, -1.7736318885131568]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1.16924248061423e-11</v>
+        <v>2.00248958970306e-07</v>
       </c>
       <c r="S10" t="n">
-        <v>1.16924248061423e-11</v>
+        <v>2.00248958970306e-07</v>
       </c>
       <c r="T10" t="n">
-        <v>68.83258448197918</v>
+        <v>62.21026815892735</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[54.475156710896954, 83.19001225306141]</t>
+          <t>[47.82987937231975, 76.59065694553495]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.538769112130467e-12</v>
+        <v>3.235078871455244e-11</v>
       </c>
       <c r="W10" t="n">
-        <v>1.538769112130467e-12</v>
+        <v>3.235078871455244e-11</v>
       </c>
       <c r="X10" t="n">
-        <v>10.36022022022024</v>
+        <v>9.350150150150165</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.048068068068082</v>
+        <v>6.27795795795797</v>
       </c>
       <c r="Z10" t="n">
-        <v>12.67237237237239</v>
+        <v>12.42234234234236</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.21000000000003</v>
+        <v>22.24000000000004</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>4.691070541240627e-06</v>
+        <v>2.960431098464333e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>4.691070541240627e-06</v>
+        <v>2.960431098464333e-05</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>54.49315747898922</v>
+        <v>52.58989305787438</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[27.944528246091757, 81.04178671188669]</t>
+          <t>[25.16920088259732, 80.01058523315145]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.000153289639055032</v>
+        <v>0.0003564321380105095</v>
       </c>
       <c r="O11" t="n">
-        <v>0.000153289639055032</v>
+        <v>0.0003564321380105095</v>
       </c>
       <c r="P11" t="n">
-        <v>-2.377421467581465</v>
+        <v>-2.528368862348542</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-2.8302636518826954, -1.924579283280234]</t>
+          <t>[-3.04410579446939, -2.0126319302276947]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>8.79296635503124e-14</v>
+        <v>7.724931805341839e-13</v>
       </c>
       <c r="S11" t="n">
-        <v>8.79296635503124e-14</v>
+        <v>7.724931805341839e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>57.22759354448456</v>
+        <v>64.32096261014409</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[43.75930639729138, 70.69588069167773]</t>
+          <t>[49.7509960104679, 78.89092920982029]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>5.38866729016263e-11</v>
+        <v>1.804201232857849e-11</v>
       </c>
       <c r="W11" t="n">
-        <v>5.38866729016263e-11</v>
+        <v>1.804201232857849e-11</v>
       </c>
       <c r="X11" t="n">
-        <v>8.403783783783794</v>
+        <v>8.949429429429443</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.803063063063074</v>
+        <v>7.123923923923932</v>
       </c>
       <c r="Z11" t="n">
-        <v>10.00450450450452</v>
+        <v>10.77493493493495</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.21000000000003</v>
+        <v>22.24000000000004</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>6.660569313421405e-06</v>
+        <v>8.685637770122767e-07</v>
       </c>
       <c r="I12" t="n">
-        <v>6.660569313421405e-06</v>
+        <v>8.685637770122767e-07</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>46.39793145484609</v>
+        <v>54.22871916848605</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[23.58616522282291, 69.20969768686928]</t>
+          <t>[32.72006595358137, 75.73737238339073]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.0001724885281040311</v>
+        <v>7.090418399080534e-06</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0001724885281040311</v>
+        <v>7.090418399080534e-06</v>
       </c>
       <c r="P12" t="n">
-        <v>-2.427737265837158</v>
+        <v>-1.811368737204925</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-2.905737349266236, -1.9497371824080791]</t>
+          <t>[-2.251631971942234, -1.3711055024676169]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>2.542410726391608e-13</v>
+        <v>1.32417632414672e-10</v>
       </c>
       <c r="S12" t="n">
-        <v>2.542410726391608e-13</v>
+        <v>1.32417632414672e-10</v>
       </c>
       <c r="T12" t="n">
-        <v>56.75724088445714</v>
+        <v>55.7953686977478</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[45.036391201321905, 68.47809056759237]</t>
+          <t>[43.78105439165744, 67.80968300383816]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.131095217488109e-12</v>
+        <v>4.04121180963557e-12</v>
       </c>
       <c r="W12" t="n">
-        <v>1.131095217488109e-12</v>
+        <v>4.04121180963557e-12</v>
       </c>
       <c r="X12" t="n">
-        <v>8.581641641641655</v>
+        <v>6.411531531531542</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.891991991992</v>
+        <v>4.853173173173181</v>
       </c>
       <c r="Z12" t="n">
-        <v>10.27129129129131</v>
+        <v>7.969889889889904</v>
       </c>
     </row>
   </sheetData>
